--- a/Supporting_Documentation_or_Planning/pin map.xlsx
+++ b/Supporting_Documentation_or_Planning/pin map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU sophomore\ECEN2440\ECEN2440_Final_Project_v1\Supporting Documentation or Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU sophomore\ECEN2440\ECEN2440_Final_Project_v1\Supporting_Documentation_or_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4B5949-E95F-477C-9E5D-DECEE765A18E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C67B44-C41F-4DD8-9704-8A305223B6D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{77D42DDB-0A50-4D0B-9160-05A484805FA6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve"> Port</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Line Follow</t>
+  </si>
+  <si>
+    <t>PWM (any)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +458,18 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
